--- a/pystudy/test.xlsx
+++ b/pystudy/test.xlsx
@@ -6,7 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="9780" windowHeight="9510" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1번시트" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="마지막시트" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="마지막시트1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -419,6 +422,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -532,4 +553,40 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/pystudy/test.xlsx
+++ b/pystudy/test.xlsx
@@ -6,10 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="9780" windowHeight="9510" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1번시트" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="마지막시트" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="마지막시트1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1번시트1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1번시트" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="마지막시트" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="마지막시트1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="마지막시트2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -442,6 +444,126 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F9"/>
     </sheetView>
@@ -555,7 +677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -573,7 +695,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
